--- a/biology/Histoire de la zoologie et de la botanique/Norman_Ingram_Hendey/Norman_Ingram_Hendey.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Norman_Ingram_Hendey/Norman_Ingram_Hendey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Norman Ingram Hendey est un phycologue britannique, né le 31 janvier 1903 à Lyndhurst et mort le 30 août 2004.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études au Southampton University College (aujourd’hui Southampton University), Hendey devient pharmacien. Il commence à fréquenter en 1921 la Southampton Natural History Society où il assiste à une présentation sur les diatomées. Hendey se passionne alors pour la forme géométrique et la complexité de ces organismes. À la suite de la lecture d’A Treatise on the Diatomaceae de Henri Ferdinand Van Heurck (1838-1909), il achète un microscope d’occasion et commence à étudier les diatomées.
 Il acquiert une véritable réputation dans ce domaine. Stanley Wells Kemp (1882-1945) lui confie l’étude des spécimens de plancton récoltés au cours l’expédition Discovery dans les mers du sud. Durant la Seconde Guerre mondiale, Hendey rejoint le service de renseignement de la marine britannique.
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Gerald Boalch, « Obituary Norman Ingram Hendey (1903-2004) », The Phycologist, vol. 68,‎ printemps 2005, p. 10-11 (ISSN 0965-5301, lire en ligne)</t>
         </is>
